--- a/Jeu/TestRes.xlsx
+++ b/Jeu/TestRes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\axelf\Desktop\Codage\OPEN\GitHub\jeusecret\Jeu\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD058DD6-7E2E-405E-8306-0275BB16F2CB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D05F6EBD-2AD8-467A-9AB3-60C2F791FEB0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{6ECEF9EE-FB08-47A2-BD9C-3FF6B4ED3719}"/>
   </bookViews>
@@ -408,31 +408,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B5DE26D-9C7D-464E-BD3D-7A62574D9084}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
         <v>5</v>
-      </c>
-      <c r="C1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>1</v>
       </c>
       <c r="B2" t="b">
         <v>1</v>
@@ -443,10 +446,13 @@
       <c r="D2" t="b">
         <v>0</v>
       </c>
+      <c r="E2" t="b">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B3" t="b">
         <v>0</v>
@@ -457,10 +463,13 @@
       <c r="D3" t="b">
         <v>0</v>
       </c>
+      <c r="E3" t="b">
+        <v>0</v>
+      </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B4" t="b">
         <v>0</v>
@@ -471,18 +480,7 @@
       <c r="D4" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" t="b">
-        <v>0</v>
-      </c>
-      <c r="C5" t="b">
-        <v>0</v>
-      </c>
-      <c r="D5" t="b">
+      <c r="E4" t="b">
         <v>1</v>
       </c>
     </row>
